--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45559.66045138889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45552.55893518519</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45576.58877314815</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45952.53230324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>45608.47541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45586.56363425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45937.63402777778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45937.47490740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45702.36715277778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>46051.44943287037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45176</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44337</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44472</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44389</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44858</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44242</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45236</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45238</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45189</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45022</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45588</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45230</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45520.51614583333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45639</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45621.41215277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>45158</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>45733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45736.33638888889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45196</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45637.67839120371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>45637.67841435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45202</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45595.50810185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45195</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45201</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45166</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45187</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45002</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45190</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44792</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44525</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44928</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45629.47841435186</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>45184</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45638.63717592593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45688.68453703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45799.55288194444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45217</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45799.55289351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45714.45914351852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45798</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45887.53207175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45166</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>45572.36284722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45210</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45210</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45098</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45176</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45174</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45054</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45811.48984953704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45750.62423611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>45726.44050925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45589</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45002</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45890.57387731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>45890.56412037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45890.5809837963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45244</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45229</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>45502</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45750.62734953704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45022</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45022</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45154</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45227</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45901.46976851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45901.59440972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45898.57967592592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45901.59408564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45901.59436342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45898.57359953703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45901.44844907407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45898.56827546296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>45899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>45899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45575</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45225</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>45899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45901.44833333333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45902.36494212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>45179</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>45454</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45637.65096064815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45904</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>45252</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45904</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45904.49059027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45180</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45188</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45178</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45912.42877314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45912.42880787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45643.68678240741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>45541</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45645</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45918.35710648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45918.36143518519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45219</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45166</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45166</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45167</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45929</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>45625</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45929.38594907407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45197</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>45932.65673611111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>45700.42770833334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45932.67960648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45204</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45204</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45642</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45642</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45937.50238425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45937.58686342592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45162</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45939.36635416667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>45939.63013888889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45939.63412037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45938.41855324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45937.56901620371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>45937.5740162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45939.36633101852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45937.65115740741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>45178</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>45939.42748842593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>45938.42548611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45155</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45158</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>45167</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>45148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45610</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45166</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45947.5946875</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45946.67005787037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45853.65667824074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>45860.44605324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>45860.45328703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45861.55707175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45861.56920138889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>45860.46180555555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45861.58435185185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45861.60244212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45861.60447916666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45861.61166666666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45861.5971875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45861.61929398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45952</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45952.55270833334</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45154</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45952.51190972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45952.5119675926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45952.53225694445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45952.55365740741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>45867.65657407408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>45952.53190972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>45952.55361111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45621.41216435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>45870.42599537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45870.43251157407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45957.44925925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45180</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45166</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45170</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45201</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>45875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>45107</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45960</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45965.55259259259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45964.33495370371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45232</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>45966.34577546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45966.59900462963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>45966.57707175926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45964</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45964</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45968.40736111111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>45968.40739583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45701.65417824074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45972.39516203704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45973.720625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45176</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>45152</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>45149</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>45190</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45153</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45267</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45167</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>46027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45973</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45229</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45973</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45973</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>46027</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45646</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>45987.49075231481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>45987.49078703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>45201</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45167</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>45989.57978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45988.38655092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45608.47178240741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>46031.46912037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45989.56814814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45646</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45989.57853009259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45989.57953703704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45989.56008101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45989.56253472222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45989.57658564814</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45167</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44575</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45175</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45193</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45193</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45664.3709837963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45384</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45468</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45504</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>46035.52957175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45595.41861111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45995</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>46031</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>46031</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44994</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45000</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45002</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45595.5080787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45660</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45660</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45156</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>46031</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45999</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>45964</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>46042.538125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>45166</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45168</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>45714.45583333333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45182</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45722</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44911</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45540</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>45540</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>45219</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>46001.62689814815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>46002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>46003.36516203704</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44939</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45193</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>45189</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44524</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45709.44854166666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44439</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45238</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45189</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45694.65726851852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45695.39059027778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45741.56851851852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45149</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45203</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>45551.61047453704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45155</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>45154</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>45212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45646</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45516</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>45222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44893</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45590</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>45540</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>45645</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>45166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45624.55708333333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>45685.64454861111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45722</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45139</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45193</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44441</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45601</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45154</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>45267</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45688.68456018518</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45184</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>45734.51712962963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45152</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45394</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>45394</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>45154</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45201</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>45159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>45170</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45233</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45660</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45740.69831018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45636.39815972222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45636.39973379629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45642</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45520.51274305556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45622.46129629629</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45642</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44491</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45601</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45154</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45520.51524305555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>45646</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44964</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>45223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>45170</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45740.69827546296</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45694.42777777778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45369</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45274.44392361111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45245</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45174</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45176</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45170</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45171</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45174</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>45516</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>45209</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45700.46908564815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44802</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45167</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45210</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>45211</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>45203</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>45139</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>45516</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45688.68439814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45393.61599537037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>45719.31428240741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>45705.56554398148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45572</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>45598.89230324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>45173</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>45622</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45152</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>45153</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45483.93383101852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45636.38042824074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45152</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>45454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>45219</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24480,7 +24480,7 @@
         <v>44523</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24537,7 +24537,7 @@
         <v>44889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>45189</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>45219</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44491</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45572</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>45516</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>45152</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>45643</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45559.66045138889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45552.55893518519</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45576.58877314815</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45952.53230324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>45608.47541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45586.56363425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45937.63402777778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45937.47490740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45702.36715277778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>46051.44943287037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45176</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44337</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44472</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44389</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44858</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44242</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45236</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45238</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45189</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45022</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45588</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45230</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45520.51614583333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45639</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45621.41215277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>45158</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>45733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45736.33638888889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45196</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45637.67839120371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>45637.67841435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45202</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45595.50810185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45195</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45201</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45166</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45187</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45002</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45190</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44792</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44525</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44928</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45629.47841435186</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>45184</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45638.63717592593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45688.68453703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45799.55288194444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45217</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45799.55289351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45714.45914351852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45798</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45887.53207175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45166</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>45572.36284722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45210</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45210</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45098</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45176</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45174</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45054</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45811.48984953704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45750.62423611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>45726.44050925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45589</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45002</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45890.57387731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>45890.56412037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45890.5809837963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45244</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45229</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>45502</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45750.62734953704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45022</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45022</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45154</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45227</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45901.46976851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45901.59440972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45898.57967592592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45901.59408564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45901.59436342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45898.57359953703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45901.44844907407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45898.56827546296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>45899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>45899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45575</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45225</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>45899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45901.44833333333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45902.36494212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>45179</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>45454</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45637.65096064815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45904</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>45252</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45904</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45904.49059027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45180</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45188</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45178</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45912.42877314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45912.42880787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45643.68678240741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>45541</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45645</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45918.35710648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45918.36143518519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45219</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45166</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45166</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45167</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45929</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>45625</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45929.38594907407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45197</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>45932.65673611111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>45700.42770833334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45932.67960648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45204</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45204</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45642</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45642</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45937.50238425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45937.58686342592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45162</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45939.36635416667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>45939.63013888889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45939.63412037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45938.41855324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45937.56901620371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>45937.5740162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45939.36633101852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45937.65115740741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>45178</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>45939.42748842593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>45938.42548611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45155</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45158</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>45167</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>45148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45610</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45166</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45947.5946875</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45946.67005787037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45853.65667824074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>45860.44605324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>45860.45328703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45861.55707175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45861.56920138889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>45860.46180555555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45861.58435185185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45861.60244212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45861.60447916666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45861.61166666666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45861.5971875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45861.61929398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45952</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45952.55270833334</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45719</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45154</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45952.51190972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45952.5119675926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45952.53225694445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45952.55365740741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>45867.65657407408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>45952.53190972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>45952.55361111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45621.41216435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>45870.42599537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45870.43251157407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45957.44925925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45180</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45166</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45170</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45201</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>45875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>45107</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45960</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45965.55259259259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45964.33495370371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45232</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>45966.34577546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45966.59900462963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>45966.57707175926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45964</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45964</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45968.40736111111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>45968.40739583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45701.65417824074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45972.39516203704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45973.720625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45176</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>45152</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>45149</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>45190</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45153</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45267</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45167</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>46027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45973</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45229</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45973</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45973</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>46027</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45646</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>45987.49075231481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>45987.49078703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>45201</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45167</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>45989.57978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45988.38655092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45608.47178240741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>46031.46912037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45989.56814814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45646</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45989.57853009259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45989.57953703704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45989.56008101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45989.56253472222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45989.57658564814</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45167</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44575</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45175</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45193</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45193</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45664.3709837963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45384</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45468</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45504</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>46035.52957175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45595.41861111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45995</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>46031</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>46031</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44994</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45000</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45002</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45595.5080787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45660</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45660</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45156</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>46031</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45999</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>45964</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>46042.538125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>45166</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45168</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>45714.45583333333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45182</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45722</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44911</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45540</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>45540</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>45219</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>46001.62689814815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>46002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>46003.36516203704</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44939</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45193</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>45189</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44524</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45709.44854166666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44439</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45238</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45189</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45694.65726851852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45695.39059027778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45741.56851851852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45149</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45203</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>45551.61047453704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45155</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>45154</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>45212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45646</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45516</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>45222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44893</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45590</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>45540</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>45645</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>45166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45624.55708333333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>45685.64454861111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45722</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45139</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45193</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44441</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45601</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45154</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>45267</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45688.68456018518</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45184</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>45734.51712962963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45152</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45394</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>45394</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>45154</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45201</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>45159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>45170</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45233</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45660</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45740.69831018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45636.39815972222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45636.39973379629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45642</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45520.51274305556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45622.46129629629</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45642</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44491</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45601</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45154</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45520.51524305555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>45646</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44964</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>45223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>45170</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45740.69827546296</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45694.42777777778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45369</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45274.44392361111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45245</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45174</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45176</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45170</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45171</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45174</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>45516</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>45209</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45700.46908564815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44802</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45167</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45210</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>45211</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>45203</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>45139</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>45516</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45688.68439814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45393.61599537037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>45719.31428240741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>45705.56554398148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45572</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>45598.89230324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>45173</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>45622</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45152</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>45153</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45483.93383101852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45636.38042824074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45152</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>45454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>45219</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24480,7 +24480,7 @@
         <v>44523</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24537,7 +24537,7 @@
         <v>44889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>45189</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>45219</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44491</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45572</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>45516</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>45152</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>45643</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45559.66045138889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45552.55893518519</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45576.58877314815</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45952.53230324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>45608.47541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45586.56363425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45937.63402777778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45937.47490740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45702.36715277778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>46051.44943287037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45176</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44337</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44472</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44389</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44858</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>45236</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44440</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45238</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>45022</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45588</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45189</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45230</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45520.51614583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45639</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45621.41215277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45158</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>45637.67839120371</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>45637.67841435185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45736.33638888889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45196</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>45202</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45595.50810185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45000</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45166</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45195</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45201</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45187</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45190</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44792</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44525</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>45184</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45638.63717592593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45629.47841435186</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44928</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45688.68453703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45714.45914351852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45166</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45572.36284722222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45210</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45210</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>45002</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45244</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45750.62734953704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45229</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45750.62423611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45726.44050925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45022</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45022</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45887.53207175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45227</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45176</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45174</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>45575</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45225</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>45179</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>45454</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45637.65096064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45890.57387731481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45890.56412037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45890.5809837963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>45252</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>45502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>45180</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45154</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>45188</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45174</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45174</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>45901.46976851852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>44893</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45901.59440972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45898.57967592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45178</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45901.59408564815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45901.59436342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45897</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45898.57359953703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45643.68678240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45901.44844907407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45898.56827546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45899</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45901.44833333333</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45541</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45902.36494212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>45904</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45904</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>45219</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>45166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>45166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>45904.49059027778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45167</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45625</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45154</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>45912.42877314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>45912.42880787037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45853.65667824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45197</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45159</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45918.35710648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45918.36143518519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45700.42770833334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45204</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45204</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45860.44605324074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45860.45328703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45861.55707175926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45861.56920138889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45860.46180555555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45861.58435185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45861.60244212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45861.60447916666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45861.61166666666</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45861.5971875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45861.61929398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45642</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>45642</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44967</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45162</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45867.65657407408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45929</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45178</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45929.38594907407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45870.42599537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45870.43251157407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>45155</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45158</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>45167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45610</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45166</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>45932.65673611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45932.67960648148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45107</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45937.50238425926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>45518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45937.58686342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>44881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45939.36635416667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>45939.63013888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>45154</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>45939.63412037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45938.41855324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45937.56901620371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45937.5740162037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45939.36633101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45937.65115740741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45939.42748842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45938.42548611111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45621.41216435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45152</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45180</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45166</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45170</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>45201</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45947.5946875</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45946.67005787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45952</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45952.55270833334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45952.51190972222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45952.5119675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>45952.53225694445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45952.55365740741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45952.53190972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45952.55361111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>45232</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>45111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45957.44925925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45701.65417824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45960</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>45965.55259259259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45149</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45190</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45964.33495370371</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45966.34577546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45966.59900462963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>45966.57707175926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45964</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45153</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45964</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>45968.40736111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45968.40739583333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45267</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45167</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45972.39516203704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45973.720625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45229</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45646</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45980</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45980</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45201</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45167</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45608.47178240741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45646</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44575</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45175</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45193</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45193</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45664.3709837963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45985</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45973</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45973</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45987.49075231481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45987.49078703704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45384</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45468</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45504</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>45989.57978009259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45988.38655092593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45989.56814814815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45989.57853009259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45989.57953703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45989.56008101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45989.56253472222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45989.57658564814</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45595.41861111111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44994</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>46035.52957175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45000</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45995</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45595.5080787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45660</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45660</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45156</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45166</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45168</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45714.45583333333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45182</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45722</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45999</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44911</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45540</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45540</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45219</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45964</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>46042.538125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45193</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45189</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44524</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45709.44854166666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>46001.62689814815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>46002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>46003.36516203704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45153</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44439</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45238</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45189</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45694.65726851852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45695.39059027778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45741.56851851852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45203</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45551.61047453704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45154</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45646</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>45516</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>45212</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>45162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>45161</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44893</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45590</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45540</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45645</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45166</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>45624.55708333333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>45685.64454861111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45139</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45193</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44441</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45601</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45154</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>46027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>46066</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>45267</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45688.68456018518</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>46027</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>46066.55268518518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45184</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45734.51712962963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>45160</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>46070.61159722223</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>45152</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45394</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>45394</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>46070.60636574074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>46031</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>45154</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>46072.52645833333</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>46031.46912037037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>46031</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45201</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>46031</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45159</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45170</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45233</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>45660</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45740.69831018519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45636.39815972222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>45636.39973379629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>45642</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>45520.51274305556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>45622.46129629629</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45642</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44491</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45601</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>45154</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>45520.51524305555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>45222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45646</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44964</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45223</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45170</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>45740.69827546296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>45694.42777777778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>45369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>45274.44392361111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>45245</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45162</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45174</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45176</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45170</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45171</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45174</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45516</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45209</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45700.46908564815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44802</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>45210</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45211</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>45203</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45139</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45516</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45688.68439814815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45393.61599537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>45719.31428240741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>45705.56554398148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>45572</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45598.89230324074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>45173</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45622</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45152</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45153</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45153</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>45483.93383101852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45636.38042824074</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45152</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45454</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>45219</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44523</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>45189</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>45219</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>45201</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44491</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>45572</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>45516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>45152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>45643</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>45799.55288194444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44448</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45799.55289351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45798</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45098</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>44740</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45811.48984953704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>45589</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45559.66045138889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45552.55893518519</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45576.58877314815</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45952.53230324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>45608.47541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45586.56363425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45937.63402777778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45937.47490740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45702.36715277778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>46051.44943287037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45176</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44337</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44472</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44389</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44858</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>45236</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44440</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45238</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>45022</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45588</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45189</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45230</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45520.51614583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45639</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45621.41215277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45158</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>45637.67839120371</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>45637.67841435185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45736.33638888889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45196</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>45202</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45595.50810185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45000</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45166</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45195</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45201</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45187</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45190</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44792</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44525</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>45184</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45638.63717592593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45629.47841435186</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44928</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45688.68453703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45714.45914351852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45166</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45572.36284722222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45210</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45210</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>45002</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45244</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45750.62734953704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45229</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45750.62423611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45726.44050925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45022</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45022</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45887.53207175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45227</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45176</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45174</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>45575</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45225</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>45179</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>45454</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45637.65096064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45890.57387731481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45890.56412037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45890.5809837963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>45252</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>45502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>45180</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45154</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>45188</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45174</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45174</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>45901.46976851852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>44893</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45901.59440972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45898.57967592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45178</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45901.59408564815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45901.59436342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45897</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45898.57359953703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45643.68678240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45901.44844907407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45898.56827546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45899</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45901.44833333333</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45541</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45902.36494212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>45904</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45904</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>45219</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>45166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>45166</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>45904.49059027778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45167</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45625</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45154</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>45912.42877314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>45912.42880787037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45853.65667824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45197</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45159</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45918.35710648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45918.36143518519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45700.42770833334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45204</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45204</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45860.44605324074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45860.45328703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45861.55707175926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45861.56920138889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45860.46180555555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45861.58435185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45861.60244212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45861.60447916666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45861.61166666666</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45861.5971875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45861.61929398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45642</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>45642</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44967</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45162</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45867.65657407408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45929</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45178</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45929.38594907407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45870.42599537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45870.43251157407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>45155</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45158</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>45167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45610</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45166</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>45932.65673611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45932.67960648148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45107</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45937.50238425926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>45518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45937.58686342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>44881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45939.36635416667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>45939.63013888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>45154</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>45939.63412037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45938.41855324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45937.56901620371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45937.5740162037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45939.36633101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45937.65115740741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45939.42748842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45938.42548611111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45621.41216435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45152</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45180</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45166</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45170</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>45201</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45947.5946875</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45946.67005787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45952</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45952.55270833334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45952.51190972222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45952.5119675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>45952.53225694445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45952.55365740741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45952.53190972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45952.55361111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>45232</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>45111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45957.44925925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45701.65417824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45960</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>45965.55259259259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45149</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45190</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45964.33495370371</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45966.34577546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45966.59900462963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>45966.57707175926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45964</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45153</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45964</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>45968.40736111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45968.40739583333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45267</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45167</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45972.39516203704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45973.720625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45229</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45646</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45980</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45980</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45201</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45167</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45608.47178240741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45646</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44575</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45175</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45193</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45193</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45664.3709837963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45985</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45973</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45973</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45987.49075231481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45987.49078703704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45384</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45468</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45504</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>45989.57978009259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45988.38655092593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45989.56814814815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45989.57853009259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45989.57953703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45989.56008101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45989.56253472222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45989.57658564814</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45595.41861111111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44994</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>46035.52957175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45000</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45995</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45595.5080787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45660</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45660</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45156</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45166</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45168</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45714.45583333333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45182</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45722</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45999</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44911</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45540</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45540</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45219</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45964</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>46042.538125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45193</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45189</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44524</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45709.44854166666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>46001.62689814815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>46002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>46003.36516203704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45153</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44439</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45238</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45189</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45694.65726851852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45695.39059027778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45741.56851851852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45203</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45551.61047453704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45154</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45646</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>45516</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>45212</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>45162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>45161</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44893</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45590</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45540</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45645</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45166</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>45624.55708333333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>45685.64454861111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45139</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45193</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44441</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45601</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45154</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>46027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>46066</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>45267</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45688.68456018518</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>46027</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>46066.55268518518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45184</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45734.51712962963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>45160</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>46070.61159722223</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>45152</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45394</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>45394</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>46070.60636574074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>46031</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>45154</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>46072.52645833333</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>46031.46912037037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>46031</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45201</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>46031</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45159</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45170</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45233</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>45660</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45740.69831018519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45636.39815972222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>45636.39973379629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>45642</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>45520.51274305556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>45622.46129629629</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45642</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44491</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45601</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>45154</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>45520.51524305555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>45222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45646</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44964</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45223</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45170</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>45740.69827546296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>45694.42777777778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>45369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>45274.44392361111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>45245</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45162</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45174</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45176</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45170</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45171</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45174</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45516</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45209</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45700.46908564815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44802</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>45210</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45211</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>45203</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45139</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45516</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45688.68439814815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45393.61599537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>45719.31428240741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>45705.56554398148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>45572</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45598.89230324074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>45173</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45622</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45152</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45153</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45153</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>45483.93383101852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45636.38042824074</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45152</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45454</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>45219</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44523</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>45189</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>45219</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>45201</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44491</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>45572</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>45516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>45152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>45643</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>45799.55288194444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44448</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45799.55289351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45798</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45098</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>44740</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45811.48984953704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>45589</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45559.66045138889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45552.55893518519</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45576.58877314815</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45952.53230324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45586.56363425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>45937.47490740741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45937.63402777778</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45702.36715277778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>46051.44943287037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45176</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>44454</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45608.47541666667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44337</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44472</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44389</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44858</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44587</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>44446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>45209</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45219</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45700.46908564815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45541</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45709.44854166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44440</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45217</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45252</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45740.69831018519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45394</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45394</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45393.61599537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>45197</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44439</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45384</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45002</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45267</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45551.61047453704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45174</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45520.51274305556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45238</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45504</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44893</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45152</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45887.53207175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45168</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>45516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>45811.48984953704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45139</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>45890.57387731481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45054</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45589</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45890.5809837963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45890.56412037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45572.36284722222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>45154</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45154</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45230</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>45167</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44893</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45174</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>45898.57359953703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45898.57967592592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>45898.56827546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>45901.59440972222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45899</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45899</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>45899</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>45901.44833333333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45901.59408564815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>45901.44844907407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>45901.46976851852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>45897</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45902.36494212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>45901.59436342592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>45154</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>45176</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>45904.49059027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>45904</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45695.39059027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>45904</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>45622</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44994</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>45274.44392361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44964</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>45211</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45694.42777777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44792</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44491</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>45643.68678240741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45139</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45912.42880787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45000</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45201</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45912.42877314815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45153</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45153</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45178</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45853.65667824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45860.46180555555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45002</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45860.44605324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>45860.45328703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>45608.47178240741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>45918.35710648148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>45639</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>45184</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45861.58435185185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>45861.60244212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>45918.36143518519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>45861.55707175926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>45861.60447916666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45861.61166666666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45861.56920138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45861.5971875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45861.61929398148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>45625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45867.65657407408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45162</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45870.42599537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45870.43251157407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45642</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>45149</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>45203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>45929.38594907407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>45929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>45642</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>45201</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>45932.65673611111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>45022</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45022</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>45875</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45932.67960648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>45714.45583333333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>45107</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45705.56554398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45685.64454861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>45160</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>45193</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>45174</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>45719.31428240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45726.44050925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>45190</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45155</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45937.58686342592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45938.42548611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>45938.41855324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45937.65115740741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45937.56901620371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>45937.5740162037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45937.50238425926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45939.36635416667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45939.42748842593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>45688.68456018518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>45176</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>45939.63013888889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>45174</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45166</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>45939.63412037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>45939.36633101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45714.45914351852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44802</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44881</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45946.67005787037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45179</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>45167</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45947.5946875</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45952.53190972222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45952.55361111111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45952.51190972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45952.5119675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45701.65417824074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>45952.55365740741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45952.55270833334</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45952</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45952.53225694445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45719</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45957.44925925926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45646</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>45245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45960</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>45520.51614583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45964.33495370371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>45966.57707175926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45966.34577546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45966.59900462963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45965.55259259259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>45468</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45167</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45158</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45968.40736111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45968.40739583333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45156</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45166</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>45964</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>45964</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45972.39516203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>45155</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>45152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>45973.720625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>45610</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45722</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45980</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45980</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45750.62734953704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45645</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45167</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45170</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>45154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>45166</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>45637.65096064815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>45637.67839120371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>45985</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>45988.38655092593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>45973</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>45973</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>45973</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>45973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45629.47841435186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45987.49078703704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45590</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45987.49075231481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45722</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45989.57853009259</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45989.57978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45201</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45989.56008101852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45989.56814814815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45989.56253472222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>45989.57658564814</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45989.57953703704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45572</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>45642</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45162</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45187</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45189</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>45152</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>45159</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>45601</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45995</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45170</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45601</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45575</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>45645</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45999</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>46042.538125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45153</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45153</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45636.39815972222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45636.39973379629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45193</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45193</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>46001.62689814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>45621.41216435185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>45180</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>46002</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>45196</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>45964</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45182</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>45646</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         <v>46003.36516203704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>45204</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>45193</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>45625</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45195</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>45153</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>45201</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>45700.42770833334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>45189</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>45232</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>45212</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>45223</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>45167</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>45166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45162</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45225</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45149</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45202</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45229</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45741.56851851852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45267</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>45369</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45694.65726851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>46066.55268518518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>45734.51712962963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>46027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>46070.60636574074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>46066</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>46070.61159722223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>46027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44575</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45180</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>46031</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44967</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>46031</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45167</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45159</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>46031.46912037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>46031</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45520.51524305555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45621.41215277778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45595.50810185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>45646</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>45637.67841435185</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>45688.68439814815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>45598.89230324074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>46072</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>46035.52957175926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>45166</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45166</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44525</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>45540</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45540</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>45158</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45154</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44441</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44641</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45238</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45170</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>45736.33638888889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>45171</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>45184</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>45168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>45189</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45660</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>45660</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>45000</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>45236</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>45210</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>45210</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45154</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>45188</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45176</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>45166</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45638.63717592593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>45454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44524</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>45170</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45624.55708333333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>45595.5080787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45625</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45204</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45244</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>45642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>45667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>45595.41861111111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45154</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45233</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45178</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45660</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45664.3709837963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45203</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>45210</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>45622.46129629629</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23325,7 +23325,7 @@
         <v>45750.62423611111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23382,7 +23382,7 @@
         <v>45227</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>45173</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23496,7 +23496,7 @@
         <v>45219</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45733</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>45740.69827546296</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>45002</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45175</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>45588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45688.68453703704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45159</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>45636.38042824074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45483.93383101852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45152</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>45219</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24480,7 +24480,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24537,7 +24537,7 @@
         <v>44523</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>45516</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>45572</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45189</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45201</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45219</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>45152</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>45643</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>45798</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44448</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>45799.55289351852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>45098</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45799.55288194444</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
